--- a/CSC3510 S2021/Lectures/REST_and_JSON_Arch.xlsx
+++ b/CSC3510 S2021/Lectures/REST_and_JSON_Arch.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\dlash\github\CSC3510\S2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dlash\Documents\GitHub\CSC3510\CSC3510 S2021\Lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B5C8C07-FA6A-42B4-A664-9106D4150A83}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="7" xr2:uid="{427CA43E-4ABE-4CED-BF12-A92181A3FA1A}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Chuck Norris API" sheetId="1" r:id="rId1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -475,7 +474,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="10504762" cy="5247619"/>
+          <a:ext cx="10504762" cy="5514319"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1070,6 +1069,13 @@
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
           </a:br>
+          <a:r>
+            <a:rPr lang="en-US">
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US">
               <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
@@ -1484,6 +1490,18 @@
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
           </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
@@ -2506,6 +2524,18 @@
               <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
             </a:rPr>
           </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Courier New" panose="02070309020205020404" pitchFamily="49" charset="0"/>
+            </a:rPr>
+            <a:t/>
+          </a:r>
           <a:br>
             <a:rPr lang="en-US" sz="1100" b="1">
               <a:solidFill>
@@ -7157,14 +7187,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A7CB5B-D0E2-4A0D-B5F7-2C790C4D3400}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7172,16 +7202,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23F6FE26-6E8B-4976-9129-43FDE6F1470A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="R76"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R73" sqref="R73"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="T65" sqref="T65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="76" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="76" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R76" t="s">
         <v>0</v>
       </c>
@@ -7193,14 +7223,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{041CCFA8-B8C2-4991-BABA-C2384685B8F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView topLeftCell="A74" workbookViewId="0">
+      <selection activeCell="R96" sqref="R96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7208,16 +7238,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ACA98CA-2BC0-4B22-8F41-F4B722489EE0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B88"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="L74" sqref="L74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
         <v>1</v>
       </c>
@@ -7229,16 +7259,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C614426A-1BBF-4D67-B62C-E5734D21C093}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P11" sqref="P11"/>
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C63" s="1"/>
     </row>
   </sheetData>
@@ -7249,14 +7279,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA92C9E0-CA44-4C6E-97DE-FD5F16A79359}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="T20" sqref="T20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7264,14 +7294,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC89FE3F-2533-4BA6-AA4D-09A969CFD25F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
       <selection activeCell="R69" sqref="R69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7279,14 +7309,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FE4709-A557-4C09-8C85-B4297A498B6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+    <sheetView topLeftCell="A163" workbookViewId="0">
       <selection activeCell="H213" sqref="H213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
